--- a/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 2,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 2,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; 8,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 10,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 4,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 7,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 4,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,92; 2,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 4,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,0%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 222,75</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-60,32; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,92; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,3; 317,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,95; 170,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,82; 279,43</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 1,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 3,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 4,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 1,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 2,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 1,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,01; 186,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,04; 105,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,08; 221,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,77; 45,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,89; 161,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,21; 64,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,35; 58,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,14; 91,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,28; 68,28</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 1,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 0,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 3,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 2,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 2,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 1,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 0,98</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,91%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,04; 33,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,73; 61,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,45; 19,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 179,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,39; 106,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; 135,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,47; 59,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,52; 48,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,2; 37,64</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 2,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 4,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 0,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 3,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 4,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 0,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 1,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 3,48</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,88; 115,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,14; 43,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; 212,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,52; 38,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,23; 131,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,67; 180,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,87; 30,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,93; 51,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 131,79</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 2,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 1,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 0,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 1,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 0,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 1,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 0,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,94</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,0%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,82; 94,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,91; 48,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,55; 33,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,82; 48,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,09; 21,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,14; 62,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,03; 50,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,09; 15,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,72; 33,02</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 0,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 0,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 1,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 0,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 0,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,93</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 36,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 13,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,93; 33,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 38,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,31; 32,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; 48,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 21,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,63; 14,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 30,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 2,8</t>
+          <t>-2,08; 2,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 2,49</t>
+          <t>-2,82; 1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 8,34</t>
+          <t>-1,63; 4,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 10,3</t>
+          <t>-2,42; 1,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,56</t>
+          <t>-1,19; 3,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,34</t>
+          <t>-2,26; 2,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,76</t>
+          <t>-1,51; 1,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,27</t>
+          <t>-1,36; 1,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,92</t>
+          <t>-1,17; 2,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-56,16%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,93%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,07%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>130,91%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,77%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,7; 114,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 222,75</t>
+          <t>-60,61; 72,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,18; 168,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,32; —</t>
+          <t>-49,06; 79,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,39; 142,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,92; —</t>
+          <t>-47,87; 89,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,3; 317,02</t>
+          <t>-35,49; 61,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 170,47</t>
+          <t>-30,77; 70,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,82; 279,43</t>
+          <t>-28,85; 91,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,08</t>
+          <t>-2,98; 0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,95</t>
+          <t>-2,39; 1,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,92</t>
+          <t>-4,06; 0,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,21</t>
+          <t>-0,17; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,37</t>
+          <t>-1,27; 2,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,62</t>
+          <t>-0,69; 2,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,55</t>
+          <t>-0,93; 1,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,49</t>
+          <t>-1,36; 1,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,74</t>
+          <t>-2,11; 0,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>-28,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>-7,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>-47,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,7%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,03%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>-16,65%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 186,09</t>
+          <t>-59,04; 33,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 105,76</t>
+          <t>-47,73; 61,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 221,19</t>
+          <t>-77,53; 2,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,77; 45,9</t>
+          <t>-8,12; 179,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 161,97</t>
+          <t>-35,39; 106,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 64,9</t>
+          <t>-20,79; 135,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,35; 58,33</t>
+          <t>-24,47; 59,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 91,18</t>
+          <t>-33,52; 48,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 68,28</t>
+          <t>-50,85; 29,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,88</t>
+          <t>-1,68; 2,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,71</t>
+          <t>-2,96; 0,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,37</t>
+          <t>-0,33; 5,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,71</t>
+          <t>-3,26; 0,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,15</t>
+          <t>-1,46; 3,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,54</t>
+          <t>-1,96; 3,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,64</t>
+          <t>-1,98; 0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,31</t>
+          <t>-1,77; 1,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,98</t>
+          <t>-0,74; 3,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,12%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>-31,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-38,42%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>-37,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>-14,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,91%</t>
+          <t>43,1%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 33,83</t>
+          <t>-39,88; 115,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 61,6</t>
+          <t>-69,14; 43,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 19,94</t>
+          <t>-11,35; 225,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 179,91</t>
+          <t>-68,52; 38,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 106,45</t>
+          <t>-35,23; 131,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 135,17</t>
+          <t>-37,51; 128,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 59,94</t>
+          <t>-48,87; 30,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 48,9</t>
+          <t>-43,93; 51,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 37,64</t>
+          <t>-18,29; 112,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1285,42 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,53</t>
+          <t>-1,58; 2,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,89</t>
+          <t>-2,36; 1,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,63</t>
+          <t>-2,52; 0,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,66</t>
+          <t>-2,14; 1,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,09</t>
+          <t>-2,93; 0,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,37</t>
+          <t>-2,14; 1,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,81</t>
+          <t>-1,17; 1,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,29</t>
+          <t>-2,16; 0,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,48</t>
+          <t>-1,73; 0,81</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-31,77%</t>
+          <t>-18,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>-28,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-37,35%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>-29,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>-5,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,41%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,68%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>-14,6%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 115,13</t>
+          <t>-40,82; 94,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,14; 43,22</t>
+          <t>-57,91; 48,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 212,18</t>
+          <t>-64,12; 32,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,52; 38,48</t>
+          <t>-42,82; 48,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,23; 131,21</t>
+          <t>-59,09; 21,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 180,24</t>
+          <t>-43,95; 53,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,87; 30,87</t>
+          <t>-28,03; 50,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 51,57</t>
+          <t>-50,09; 15,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,92; 131,79</t>
+          <t>-40,72; 28,29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>-0,22</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,21</t>
+          <t>-1,05; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,01</t>
+          <t>-1,54; 0,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,69</t>
+          <t>-1,3; 1,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,54</t>
+          <t>-0,82; 1,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,53</t>
+          <t>-0,88; 0,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,82</t>
+          <t>-0,86; 1,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,43</t>
+          <t>-0,7; 0,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,36</t>
+          <t>-0,97; 0,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,94</t>
+          <t>-0,73; 0,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-18,3%</t>
+          <t>-17,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,44%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-24,67%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 94,98</t>
+          <t>-26,51; 36,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,91; 48,12</t>
+          <t>-38,13; 13,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 33,97</t>
+          <t>-34,3; 34,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 48,9</t>
+          <t>-20,95; 38,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 21,72</t>
+          <t>-22,31; 32,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 62,46</t>
+          <t>-21,01; 41,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 50,02</t>
+          <t>-18,16; 21,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,09; 15,75</t>
+          <t>-25,63; 14,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 33,02</t>
+          <t>-19,43; 27,18</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 1,0</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 0,38</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 0,94</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 1,2</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 0,95</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 1,48</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 0,68</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 0,45</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 0,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-2,72%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-17,22%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-5,31%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>17,43%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-6,37%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>6,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-26,51; 36,49</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-38,13; 13,61</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-29,93; 33,93</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-20,95; 38,28</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-22,31; 32,1</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-12,84; 48,7</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-18,16; 21,51</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 14,4</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 30,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,39</t>
+          <t>-2,2; 2,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,44</t>
+          <t>-2,8; 1,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,31</t>
+          <t>-1,44; 4,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,92</t>
+          <t>-2,25; 1,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,68</t>
+          <t>-1,35; 3,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,1</t>
+          <t>-2,24; 1,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,59</t>
+          <t>-1,48; 1,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,88</t>
+          <t>-1,34; 1,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,57</t>
+          <t>-1,26; 2,51</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 114,74</t>
+          <t>-49,77; 93,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,61; 72,23</t>
+          <t>-63,16; 73,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 168,17</t>
+          <t>-37,54; 181,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 79,09</t>
+          <t>-47,06; 78,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 142,48</t>
+          <t>-29,18; 127,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,87; 89,2</t>
+          <t>-47,35; 69,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 61,94</t>
+          <t>-34,65; 62,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 70,22</t>
+          <t>-29,86; 70,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 91,81</t>
+          <t>-29,72; 90,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,88</t>
+          <t>-3,06; 0,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,71</t>
+          <t>-2,32; 1,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,05</t>
+          <t>-3,89; 0,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,71</t>
+          <t>-0,03; 3,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,15</t>
+          <t>-1,22; 2,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,63</t>
+          <t>-0,64; 2,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,64</t>
+          <t>-0,9; 1,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,31</t>
+          <t>-1,16; 1,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,81</t>
+          <t>-1,98; 0,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 33,83</t>
+          <t>-62,88; 25,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 61,6</t>
+          <t>-48,46; 64,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,53; 2,31</t>
+          <t>-77,1; 7,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 179,91</t>
+          <t>-2,22; 175,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 106,45</t>
+          <t>-36,15; 103,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 135,17</t>
+          <t>-19,46; 130,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 59,94</t>
+          <t>-22,8; 69,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 48,9</t>
+          <t>-29,86; 51,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 29,52</t>
+          <t>-49,41; 35,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,53</t>
+          <t>-1,6; 2,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,89</t>
+          <t>-2,96; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,03</t>
+          <t>-0,28; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,66</t>
+          <t>-3,23; 0,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,09</t>
+          <t>-1,62; 2,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,42</t>
+          <t>-2,12; 3,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,81</t>
+          <t>-1,86; 0,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,29</t>
+          <t>-1,65; 1,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,14</t>
+          <t>-0,71; 3,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 115,13</t>
+          <t>-41,73; 103,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,14; 43,22</t>
+          <t>-69,41; 50,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 225,78</t>
+          <t>-14,17; 205,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,52; 38,48</t>
+          <t>-69,14; 32,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,23; 131,21</t>
+          <t>-37,11; 114,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 128,83</t>
+          <t>-42,33; 120,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,87; 30,87</t>
+          <t>-46,19; 38,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 51,57</t>
+          <t>-39,77; 57,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 112,37</t>
+          <t>-17,67; 122,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,21</t>
+          <t>-1,56; 2,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,01</t>
+          <t>-2,25; 1,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,65</t>
+          <t>-2,71; 0,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,54</t>
+          <t>-2,04; 1,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,53</t>
+          <t>-3,04; 0,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,69</t>
+          <t>-1,86; 1,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,43</t>
+          <t>-1,3; 1,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,36</t>
+          <t>-2,15; 0,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,81</t>
+          <t>-1,87; 0,8</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 94,98</t>
+          <t>-37,92; 105,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,91; 48,12</t>
+          <t>-54,77; 50,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,12; 32,74</t>
+          <t>-64,42; 33,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 48,9</t>
+          <t>-41,68; 63,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 21,72</t>
+          <t>-57,37; 26,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 53,52</t>
+          <t>-38,97; 62,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 50,02</t>
+          <t>-29,31; 46,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,09; 15,75</t>
+          <t>-49,57; 20,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 28,29</t>
+          <t>-42,97; 26,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,0</t>
+          <t>-1,09; 0,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,38</t>
+          <t>-1,57; 0,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,04</t>
+          <t>-1,34; 0,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,2</t>
+          <t>-0,88; 1,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,95</t>
+          <t>-0,86; 1,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,25</t>
+          <t>-0,75; 1,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,68</t>
+          <t>-0,64; 0,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,45</t>
+          <t>-0,91; 0,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,87</t>
+          <t>-0,69; 0,88</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 36,49</t>
+          <t>-27,19; 31,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 13,61</t>
+          <t>-38,87; 15,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 34,69</t>
+          <t>-34,45; 31,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 38,28</t>
+          <t>-21,98; 37,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 32,1</t>
+          <t>-21,9; 38,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 41,23</t>
+          <t>-18,42; 44,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 21,51</t>
+          <t>-16,74; 24,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 14,4</t>
+          <t>-24,06; 15,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 27,18</t>
+          <t>-18,51; 28,23</t>
         </is>
       </c>
     </row>
